--- a/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200429/支持移机场景下，从贝尔IMS到华为IMS (206391135)测试结果.xlsx
+++ b/文档/测试工作相关/IT端到端测试相关/测试内容相关/2020/20200429/支持移机场景下，从贝尔IMS到华为IMS (206391135)测试结果.xlsx
@@ -162,11 +162,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WMX2020050605412739</t>
+    <t>测试通过</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试通过</t>
+    <t>WMX2020050905428062</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5"/>
   <cols>
@@ -966,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="26" t="s">
